--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.22836170104432</v>
+        <v>9995.443978507874</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.22836170104432</v>
+        <v>9995.443978507874</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77337.28200594644</v>
+        <v>5168698.673855705</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77337.28200594644</v>
+        <v>5168698.673855705</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189972455.990581</v>
+        <v>45243766.36597147</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13607.98501652635</v>
+        <v>1210014.727034874</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25261.81889478023</v>
+        <v>2080274.317183697</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36906.45180123929</v>
+        <v>2950533.907332519</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48802.21054697373</v>
+        <v>3819921.252154363</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60697.96929270815</v>
+        <v>4689308.596976208</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72593.72803844257</v>
+        <v>5558695.94179805</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84489.47221678471</v>
+        <v>6428083.286619887</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96385.22730412512</v>
+        <v>7297470.631441724</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108288.8144951766</v>
+        <v>8165791.62024454</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120193.8367822766</v>
+        <v>9034398.193161029</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132098.8590693766</v>
+        <v>9903004.766077518</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144003.8813564767</v>
+        <v>10771611.33899402</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155908.9036435767</v>
+        <v>11640217.91191052</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167813.9259306767</v>
+        <v>12508824.48482702</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>179718.9482177768</v>
+        <v>13377431.05774352</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
